--- a/biology/Zoologie/Filopalpus/Filopalpus.xlsx
+++ b/biology/Zoologie/Filopalpus/Filopalpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filopalpus, unique représentant de la sous-famille des Filopalpinae, est un genre d'opilions laniatores de la famille des Assamiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Éthiopie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Éthiopie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (3 avril 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (3 avril 2023) :
 Filopalpus altomontanus Martens, 2022
 Filopalpus bale Martens, 2022
 Filopalpus joschmidti Martens, 2022
@@ -577,9 +593,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Filopalpinae et le genre Filopalpus ont été créés en 2022 par le zoologiste allemand Jochen Martens (d) (1941-)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Filopalpinae et le genre Filopalpus ont été créés en 2022 par le zoologiste allemand Jochen Martens (d) (1941-).
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Jochen Martens, « From the Ethiopian Bale Mountains hotspot—Filopalpinae subfam. nov., a new taxon of Laniatorean harvestmen based on external and genital morphology (Arachnida, Opiliones, Assamiidae) », Zootaxa, Magnolia Press (d), vol. 5159, no 2,‎ 29 juin 2022, p. 221-244 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.5159.2.3, lire en ligne)</t>
         </is>
